--- a/data/strategic behaviours/Agreed Scores.xlsx
+++ b/data/strategic behaviours/Agreed Scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherholland/Documents/A1_Current/PhD/Research Projects/Robots P2/Robots_Analysis_V2/data/strategic behaviours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD595D6C-D937-F440-9E30-C79CD73F16CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E833D433-70B8-6044-86F5-D6F125E10258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="3220" windowWidth="26840" windowHeight="15940" xr2:uid="{F21ACA43-3241-D242-AECB-081B0CAF0ABE}"/>
+    <workbookView xWindow="600" yWindow="2560" windowWidth="26840" windowHeight="15940" xr2:uid="{F21ACA43-3241-D242-AECB-081B0CAF0ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Kathryn</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>need to know when flickers happen</t>
-  </si>
-  <si>
-    <t>Bad trial</t>
-  </si>
-  <si>
-    <t>bad trial</t>
   </si>
   <si>
     <t>example</t>
@@ -471,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3EB5F6B-AB30-A646-98E3-7F51E23EB72A}">
-  <dimension ref="A1:J730"/>
+  <dimension ref="A1:J728"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A384" workbookViewId="0">
+      <selection activeCell="I400" sqref="I400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -509,10 +503,10 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17">
@@ -11502,7 +11496,7 @@
         <v>1</v>
       </c>
       <c r="G387" s="4" t="b">
-        <f t="shared" ref="G387:G450" si="12">E387=F387</f>
+        <f t="shared" ref="G387:G449" si="12">E387=F387</f>
         <v>1</v>
       </c>
       <c r="J387" s="5">
@@ -11562,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="J389" s="5">
-        <f t="shared" ref="J389:J452" si="13">IF(H389="", F389, H389)</f>
+        <f t="shared" ref="J389:J450" si="13">IF(H389="", F389, H389)</f>
         <v>0</v>
       </c>
     </row>
@@ -11963,30 +11957,27 @@
         <v>14</v>
       </c>
       <c r="B404">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404">
         <v>0</v>
       </c>
       <c r="E404">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F404">
         <v>0</v>
       </c>
       <c r="G404" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H404" t="s">
-        <v>8</v>
-      </c>
-      <c r="J404" s="5" t="str">
+        <v>1</v>
+      </c>
+      <c r="J404" s="5">
         <f t="shared" si="13"/>
-        <v>Bad trial</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -11994,7 +11985,7 @@
         <v>14</v>
       </c>
       <c r="B405">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C405">
         <v>0</v>
@@ -12022,19 +12013,19 @@
         <v>14</v>
       </c>
       <c r="B406">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G406" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12042,7 +12033,7 @@
       </c>
       <c r="J406" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -12050,19 +12041,19 @@
         <v>14</v>
       </c>
       <c r="B407">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D407">
         <v>1</v>
       </c>
       <c r="E407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F407">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G407" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12070,18 +12061,18 @@
       </c>
       <c r="J407" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B408">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C408">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D408">
         <v>1</v>
@@ -12106,13 +12097,13 @@
         <v>15</v>
       </c>
       <c r="B409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E409">
         <v>0</v>
@@ -12134,13 +12125,13 @@
         <v>15</v>
       </c>
       <c r="B410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C410">
         <v>0</v>
       </c>
       <c r="D410">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E410">
         <v>0</v>
@@ -12162,27 +12153,30 @@
         <v>15</v>
       </c>
       <c r="B411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D411">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411">
         <v>0</v>
       </c>
       <c r="G411" s="4" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H411">
         <v>1</v>
       </c>
       <c r="J411" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -12190,7 +12184,7 @@
         <v>15</v>
       </c>
       <c r="B412">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C412">
         <v>1</v>
@@ -12202,13 +12196,10 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G412" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H412">
         <v>1</v>
       </c>
       <c r="J412" s="5">
@@ -12221,19 +12212,19 @@
         <v>15</v>
       </c>
       <c r="B413">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D413">
         <v>0</v>
       </c>
       <c r="E413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F413">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G413" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12241,7 +12232,7 @@
       </c>
       <c r="J413" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:10">
@@ -12249,13 +12240,13 @@
         <v>15</v>
       </c>
       <c r="B414">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E414">
         <v>0</v>
@@ -12277,10 +12268,10 @@
         <v>15</v>
       </c>
       <c r="B415">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D415">
         <v>1</v>
@@ -12305,27 +12296,30 @@
         <v>15</v>
       </c>
       <c r="B416">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F416">
         <v>0</v>
       </c>
       <c r="G416" s="4" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H416">
         <v>1</v>
       </c>
       <c r="J416" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:10">
@@ -12333,30 +12327,27 @@
         <v>15</v>
       </c>
       <c r="B417">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D417">
         <v>0</v>
       </c>
       <c r="E417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417">
         <v>0</v>
       </c>
       <c r="G417" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H417">
         <v>1</v>
       </c>
       <c r="J417" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:10">
@@ -12364,13 +12355,13 @@
         <v>15</v>
       </c>
       <c r="B418">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C418">
         <v>0</v>
       </c>
       <c r="D418">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E418">
         <v>0</v>
@@ -12392,23 +12383,26 @@
         <v>15</v>
       </c>
       <c r="B419">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D419">
         <v>1</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F419">
         <v>0</v>
       </c>
       <c r="G419" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H419">
+        <v>0</v>
       </c>
       <c r="J419" s="5">
         <f t="shared" si="13"/>
@@ -12420,26 +12414,23 @@
         <v>15</v>
       </c>
       <c r="B420">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E420">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F420">
         <v>0</v>
       </c>
       <c r="G420" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J420" s="5">
         <f t="shared" si="13"/>
@@ -12451,19 +12442,19 @@
         <v>15</v>
       </c>
       <c r="B421">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D421">
         <v>0</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G421" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12471,7 +12462,7 @@
       </c>
       <c r="J421" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:10">
@@ -12479,19 +12470,19 @@
         <v>15</v>
       </c>
       <c r="B422">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C422">
         <v>1</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G422" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12499,7 +12490,7 @@
       </c>
       <c r="J422" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -12507,10 +12498,10 @@
         <v>15</v>
       </c>
       <c r="B423">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D423">
         <v>1</v>
@@ -12535,19 +12526,19 @@
         <v>15</v>
       </c>
       <c r="B424">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G424" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12555,7 +12546,7 @@
       </c>
       <c r="J424" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -12563,19 +12554,19 @@
         <v>15</v>
       </c>
       <c r="B425">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C425">
         <v>1</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G425" s="4" t="b">
         <f t="shared" si="12"/>
@@ -12583,7 +12574,7 @@
       </c>
       <c r="J425" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:10">
@@ -12591,10 +12582,10 @@
         <v>15</v>
       </c>
       <c r="B426">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D426">
         <v>1</v>
@@ -12619,13 +12610,13 @@
         <v>15</v>
       </c>
       <c r="B427">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C427">
         <v>0</v>
       </c>
       <c r="D427">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E427">
         <v>0</v>
@@ -12647,13 +12638,13 @@
         <v>15</v>
       </c>
       <c r="B428">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E428">
         <v>0</v>
@@ -12675,13 +12666,13 @@
         <v>15</v>
       </c>
       <c r="B429">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E429">
         <v>0</v>
@@ -12703,13 +12694,13 @@
         <v>15</v>
       </c>
       <c r="B430">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C430">
         <v>0</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E430">
         <v>0</v>
@@ -12731,13 +12722,13 @@
         <v>15</v>
       </c>
       <c r="B431">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C431">
         <v>0</v>
       </c>
       <c r="D431">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E431">
         <v>0</v>
@@ -12759,23 +12750,26 @@
         <v>15</v>
       </c>
       <c r="B432">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432">
         <v>0</v>
       </c>
       <c r="G432" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H432">
+        <v>0</v>
       </c>
       <c r="J432" s="5">
         <f t="shared" si="13"/>
@@ -12787,26 +12781,23 @@
         <v>15</v>
       </c>
       <c r="B433">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D433">
         <v>1</v>
       </c>
       <c r="E433">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F433">
         <v>0</v>
       </c>
       <c r="G433" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J433" s="5">
         <f t="shared" si="13"/>
@@ -12818,7 +12809,7 @@
         <v>15</v>
       </c>
       <c r="B434">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C434">
         <v>0</v>
@@ -12846,13 +12837,13 @@
         <v>15</v>
       </c>
       <c r="B435">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C435">
         <v>0</v>
       </c>
       <c r="D435">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E435">
         <v>0</v>
@@ -12874,23 +12865,26 @@
         <v>15</v>
       </c>
       <c r="B436">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F436">
         <v>0</v>
       </c>
       <c r="G436" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H436">
+        <v>0</v>
       </c>
       <c r="J436" s="5">
         <f t="shared" si="13"/>
@@ -12902,13 +12896,13 @@
         <v>15</v>
       </c>
       <c r="B437">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C437">
         <v>1</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E437">
         <v>1</v>
@@ -12921,25 +12915,25 @@
         <v>0</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J437" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B438">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C438">
         <v>1</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E438">
         <v>1</v>
@@ -12964,30 +12958,27 @@
         <v>16</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E439">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F439">
         <v>0</v>
       </c>
       <c r="G439" s="4" t="b">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H439">
         <v>1</v>
       </c>
       <c r="J439" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:10">
@@ -12995,13 +12986,13 @@
         <v>16</v>
       </c>
       <c r="B440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C440">
         <v>0</v>
       </c>
       <c r="D440">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E440">
         <v>0</v>
@@ -13023,10 +13014,10 @@
         <v>16</v>
       </c>
       <c r="B441">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C441">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D441">
         <v>1</v>
@@ -13051,10 +13042,10 @@
         <v>16</v>
       </c>
       <c r="B442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C442">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D442">
         <v>1</v>
@@ -13079,13 +13070,13 @@
         <v>16</v>
       </c>
       <c r="B443">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C443">
         <v>0</v>
       </c>
       <c r="D443">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E443">
         <v>0</v>
@@ -13107,19 +13098,19 @@
         <v>16</v>
       </c>
       <c r="B444">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D444">
         <v>0</v>
       </c>
       <c r="E444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F444">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G444" s="4" t="b">
         <f t="shared" si="12"/>
@@ -13127,7 +13118,7 @@
       </c>
       <c r="J444" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:10">
@@ -13135,7 +13126,7 @@
         <v>16</v>
       </c>
       <c r="B445">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -13163,19 +13154,19 @@
         <v>16</v>
       </c>
       <c r="B446">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446">
         <v>0</v>
       </c>
       <c r="E446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F446">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G446" s="4" t="b">
         <f t="shared" si="12"/>
@@ -13183,7 +13174,7 @@
       </c>
       <c r="J446" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:10">
@@ -13191,19 +13182,19 @@
         <v>16</v>
       </c>
       <c r="B447">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F447">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G447" s="4" t="b">
         <f t="shared" si="12"/>
@@ -13211,7 +13202,7 @@
       </c>
       <c r="J447" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -13219,19 +13210,19 @@
         <v>16</v>
       </c>
       <c r="B448">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D448">
         <v>1</v>
       </c>
       <c r="E448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F448">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G448" s="4" t="b">
         <f t="shared" si="12"/>
@@ -13239,7 +13230,7 @@
       </c>
       <c r="J448" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:10">
@@ -13247,19 +13238,19 @@
         <v>16</v>
       </c>
       <c r="B449">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G449" s="4" t="b">
         <f t="shared" si="12"/>
@@ -13267,7 +13258,7 @@
       </c>
       <c r="J449" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -13275,27 +13266,27 @@
         <v>16</v>
       </c>
       <c r="B450">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F450">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450" s="4" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G450:G512" si="14">E450=F450</f>
         <v>1</v>
       </c>
       <c r="J450" s="5">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -13303,13 +13294,13 @@
         <v>16</v>
       </c>
       <c r="B451">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C451">
         <v>0</v>
       </c>
       <c r="D451">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E451">
         <v>0</v>
@@ -13318,11 +13309,11 @@
         <v>0</v>
       </c>
       <c r="G451" s="4" t="b">
-        <f t="shared" ref="G451:G514" si="14">E451=F451</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J451" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="J451:J514" si="15">IF(H451="", F451, H451)</f>
         <v>0</v>
       </c>
     </row>
@@ -13331,30 +13322,27 @@
         <v>16</v>
       </c>
       <c r="B452">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F452">
         <v>0</v>
       </c>
       <c r="G452" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H452" t="s">
-        <v>9</v>
-      </c>
-      <c r="J452" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>bad trial</v>
+        <v>1</v>
+      </c>
+      <c r="J452" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -13362,27 +13350,30 @@
         <v>16</v>
       </c>
       <c r="B453">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E453">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F453">
         <v>0</v>
       </c>
       <c r="G453" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H453">
         <v>1</v>
       </c>
       <c r="J453" s="5">
-        <f t="shared" ref="J453:J516" si="15">IF(H453="", F453, H453)</f>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:10">
@@ -13390,13 +13381,13 @@
         <v>16</v>
       </c>
       <c r="B454">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C454">
         <v>0</v>
       </c>
       <c r="D454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E454">
         <v>0</v>
@@ -13418,7 +13409,7 @@
         <v>16</v>
       </c>
       <c r="B455">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C455">
         <v>1</v>
@@ -13430,13 +13421,10 @@
         <v>1</v>
       </c>
       <c r="F455">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G455" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H455">
         <v>1</v>
       </c>
       <c r="J455" s="5">
@@ -13449,7 +13437,7 @@
         <v>16</v>
       </c>
       <c r="B456">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C456">
         <v>0</v>
@@ -13477,19 +13465,19 @@
         <v>16</v>
       </c>
       <c r="B457">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G457" s="4" t="b">
         <f t="shared" si="14"/>
@@ -13497,7 +13485,7 @@
       </c>
       <c r="J457" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:10">
@@ -13505,19 +13493,19 @@
         <v>16</v>
       </c>
       <c r="B458">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D458">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F458">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G458" s="4" t="b">
         <f t="shared" si="14"/>
@@ -13525,7 +13513,7 @@
       </c>
       <c r="J458" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -13533,7 +13521,7 @@
         <v>16</v>
       </c>
       <c r="B459">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C459">
         <v>0</v>
@@ -13561,22 +13549,25 @@
         <v>16</v>
       </c>
       <c r="B460">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C460">
         <v>1</v>
       </c>
       <c r="D460">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E460">
         <v>1</v>
       </c>
       <c r="F460">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G460" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H460">
         <v>1</v>
       </c>
       <c r="J460" s="5">
@@ -13589,13 +13580,13 @@
         <v>16</v>
       </c>
       <c r="B461">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C461">
         <v>0</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E461">
         <v>0</v>
@@ -13617,25 +13608,22 @@
         <v>16</v>
       </c>
       <c r="B462">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C462">
         <v>1</v>
       </c>
       <c r="D462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E462">
         <v>1</v>
       </c>
       <c r="F462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G462" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H462">
         <v>1</v>
       </c>
       <c r="J462" s="5">
@@ -13648,7 +13636,7 @@
         <v>16</v>
       </c>
       <c r="B463">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C463">
         <v>0</v>
@@ -13676,19 +13664,19 @@
         <v>16</v>
       </c>
       <c r="B464">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D464">
         <v>0</v>
       </c>
       <c r="E464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G464" s="4" t="b">
         <f t="shared" si="14"/>
@@ -13696,7 +13684,7 @@
       </c>
       <c r="J464" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -13704,41 +13692,44 @@
         <v>16</v>
       </c>
       <c r="B465">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D465">
         <v>1</v>
       </c>
       <c r="E465">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465">
         <v>0</v>
       </c>
       <c r="G465" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H465">
         <v>1</v>
       </c>
       <c r="J465" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B466">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="C466">
         <v>0</v>
       </c>
       <c r="D466">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E466">
         <v>0</v>
@@ -13757,10 +13748,10 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B467">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C467">
         <v>1</v>
@@ -13779,11 +13770,11 @@
         <v>0</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J467" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:10">
@@ -13791,13 +13782,13 @@
         <v>17</v>
       </c>
       <c r="B468">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C468">
         <v>0</v>
       </c>
       <c r="D468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -13819,30 +13810,27 @@
         <v>17</v>
       </c>
       <c r="B469">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C469">
         <v>1</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E469">
         <v>1</v>
       </c>
       <c r="F469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G469" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J469" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -13850,13 +13838,13 @@
         <v>17</v>
       </c>
       <c r="B470">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C470">
         <v>0</v>
       </c>
       <c r="D470">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E470">
         <v>0</v>
@@ -13878,19 +13866,19 @@
         <v>17</v>
       </c>
       <c r="B471">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D471">
         <v>0</v>
       </c>
       <c r="E471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G471" s="4" t="b">
         <f t="shared" si="14"/>
@@ -13898,7 +13886,7 @@
       </c>
       <c r="J471" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -13906,23 +13894,26 @@
         <v>17</v>
       </c>
       <c r="B472">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D472">
         <v>1</v>
       </c>
       <c r="E472">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F472">
         <v>0</v>
       </c>
       <c r="G472" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H472">
+        <v>0</v>
       </c>
       <c r="J472" s="5">
         <f t="shared" si="15"/>
@@ -13934,19 +13925,19 @@
         <v>17</v>
       </c>
       <c r="B473">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D473">
         <v>0</v>
       </c>
       <c r="E473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G473" s="4" t="b">
         <f t="shared" si="14"/>
@@ -13954,7 +13945,7 @@
       </c>
       <c r="J473" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:10">
@@ -13962,26 +13953,23 @@
         <v>17</v>
       </c>
       <c r="B474">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D474">
         <v>1</v>
       </c>
       <c r="E474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F474">
         <v>0</v>
       </c>
       <c r="G474" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J474" s="5">
         <f t="shared" si="15"/>
@@ -13993,19 +13981,19 @@
         <v>17</v>
       </c>
       <c r="B475">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D475">
         <v>0</v>
       </c>
       <c r="E475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G475" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14013,7 +14001,7 @@
       </c>
       <c r="J475" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -14021,23 +14009,26 @@
         <v>17</v>
       </c>
       <c r="B476">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D476">
         <v>1</v>
       </c>
       <c r="E476">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476">
         <v>0</v>
       </c>
       <c r="G476" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H476">
+        <v>0</v>
       </c>
       <c r="J476" s="5">
         <f t="shared" si="15"/>
@@ -14049,27 +14040,30 @@
         <v>17</v>
       </c>
       <c r="B477">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D477">
         <v>0</v>
       </c>
       <c r="E477">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F477">
         <v>0</v>
       </c>
       <c r="G477" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H477">
         <v>1</v>
       </c>
       <c r="J477" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -14077,26 +14071,23 @@
         <v>17</v>
       </c>
       <c r="B478">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D478">
         <v>1</v>
       </c>
       <c r="E478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F478">
         <v>0</v>
       </c>
       <c r="G478" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J478" s="5">
         <f t="shared" si="15"/>
@@ -14108,30 +14099,27 @@
         <v>17</v>
       </c>
       <c r="B479">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C479">
         <v>1</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E479">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F479">
         <v>0</v>
       </c>
       <c r="G479" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H479">
         <v>1</v>
       </c>
       <c r="J479" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -14139,13 +14127,13 @@
         <v>17</v>
       </c>
       <c r="B480">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C480">
         <v>0</v>
       </c>
       <c r="D480">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E480">
         <v>0</v>
@@ -14167,27 +14155,30 @@
         <v>17</v>
       </c>
       <c r="B481">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C481">
         <v>1</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F481">
         <v>0</v>
       </c>
       <c r="G481" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H481">
         <v>1</v>
       </c>
       <c r="J481" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -14195,13 +14186,13 @@
         <v>17</v>
       </c>
       <c r="B482">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D482">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E482">
         <v>0</v>
@@ -14223,7 +14214,7 @@
         <v>17</v>
       </c>
       <c r="B483">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C483">
         <v>1</v>
@@ -14235,13 +14226,10 @@
         <v>1</v>
       </c>
       <c r="F483">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G483" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H483">
         <v>1</v>
       </c>
       <c r="J483" s="5">
@@ -14254,10 +14242,10 @@
         <v>17</v>
       </c>
       <c r="B484">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C484">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D484">
         <v>1</v>
@@ -14282,19 +14270,19 @@
         <v>17</v>
       </c>
       <c r="B485">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D485">
         <v>0</v>
       </c>
       <c r="E485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F485">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G485" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14302,7 +14290,7 @@
       </c>
       <c r="J485" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:10">
@@ -14310,13 +14298,13 @@
         <v>17</v>
       </c>
       <c r="B486">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C486">
         <v>0</v>
       </c>
       <c r="D486">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E486">
         <v>0</v>
@@ -14338,23 +14326,26 @@
         <v>17</v>
       </c>
       <c r="B487">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E487">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F487">
         <v>0</v>
       </c>
       <c r="G487" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H487">
+        <v>0</v>
       </c>
       <c r="J487" s="5">
         <f t="shared" si="15"/>
@@ -14366,13 +14357,13 @@
         <v>17</v>
       </c>
       <c r="B488">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C488">
         <v>0</v>
       </c>
       <c r="D488">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E488">
         <v>0</v>
@@ -14394,26 +14385,23 @@
         <v>17</v>
       </c>
       <c r="B489">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D489">
         <v>1</v>
       </c>
       <c r="E489">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F489">
         <v>0</v>
       </c>
       <c r="G489" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J489" s="5">
         <f t="shared" si="15"/>
@@ -14425,13 +14413,13 @@
         <v>17</v>
       </c>
       <c r="B490">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C490">
         <v>0</v>
       </c>
       <c r="D490">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E490">
         <v>0</v>
@@ -14453,23 +14441,26 @@
         <v>17</v>
       </c>
       <c r="B491">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D491">
         <v>1</v>
       </c>
       <c r="E491">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F491">
         <v>0</v>
       </c>
       <c r="G491" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>0</v>
       </c>
       <c r="J491" s="5">
         <f t="shared" si="15"/>
@@ -14481,27 +14472,30 @@
         <v>17</v>
       </c>
       <c r="B492">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D492">
         <v>0</v>
       </c>
       <c r="E492">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F492">
         <v>0</v>
       </c>
       <c r="G492" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H492">
         <v>1</v>
       </c>
       <c r="J492" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:10">
@@ -14509,26 +14503,23 @@
         <v>17</v>
       </c>
       <c r="B493">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F493">
         <v>0</v>
       </c>
       <c r="G493" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J493" s="5">
         <f t="shared" si="15"/>
@@ -14540,30 +14531,27 @@
         <v>17</v>
       </c>
       <c r="B494">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C494">
         <v>1</v>
       </c>
       <c r="D494">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E494">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F494">
         <v>0</v>
       </c>
       <c r="G494" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H494">
         <v>1</v>
       </c>
       <c r="J494" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -14571,27 +14559,30 @@
         <v>17</v>
       </c>
       <c r="B495">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D495">
         <v>0</v>
       </c>
       <c r="E495">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F495">
         <v>0</v>
       </c>
       <c r="G495" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H495">
         <v>1</v>
       </c>
       <c r="J495" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:10">
@@ -14599,10 +14590,10 @@
         <v>17</v>
       </c>
       <c r="B496">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C496">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D496">
         <v>1</v>
@@ -14624,10 +14615,10 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B497">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C497">
         <v>1</v>
@@ -14655,16 +14646,16 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B498">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C498">
         <v>0</v>
       </c>
       <c r="D498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E498">
         <v>0</v>
@@ -14686,30 +14677,27 @@
         <v>18</v>
       </c>
       <c r="B499">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E499">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F499">
         <v>0</v>
       </c>
       <c r="G499" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H499">
         <v>1</v>
       </c>
       <c r="J499" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:10">
@@ -14717,7 +14705,7 @@
         <v>18</v>
       </c>
       <c r="B500">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C500">
         <v>0</v>
@@ -14745,7 +14733,7 @@
         <v>18</v>
       </c>
       <c r="B501">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C501">
         <v>0</v>
@@ -14773,13 +14761,13 @@
         <v>18</v>
       </c>
       <c r="B502">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E502">
         <v>0</v>
@@ -14801,19 +14789,19 @@
         <v>18</v>
       </c>
       <c r="B503">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D503">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F503">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G503" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14821,7 +14809,7 @@
       </c>
       <c r="J503" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -14829,13 +14817,13 @@
         <v>18</v>
       </c>
       <c r="B504">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E504">
         <v>0</v>
@@ -14857,19 +14845,19 @@
         <v>18</v>
       </c>
       <c r="B505">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F505">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G505" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14877,7 +14865,7 @@
       </c>
       <c r="J505" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:10">
@@ -14885,23 +14873,26 @@
         <v>18</v>
       </c>
       <c r="B506">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E506">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F506">
         <v>0</v>
       </c>
       <c r="G506" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
       </c>
       <c r="J506" s="5">
         <f t="shared" si="15"/>
@@ -14913,19 +14904,19 @@
         <v>18</v>
       </c>
       <c r="B507">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D507">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G507" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14933,7 +14924,7 @@
       </c>
       <c r="J507" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:10">
@@ -14941,7 +14932,7 @@
         <v>18</v>
       </c>
       <c r="B508">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C508">
         <v>1</v>
@@ -14950,17 +14941,14 @@
         <v>1</v>
       </c>
       <c r="E508">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F508">
         <v>0</v>
       </c>
       <c r="G508" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J508" s="5">
         <f t="shared" si="15"/>
@@ -14972,19 +14960,19 @@
         <v>18</v>
       </c>
       <c r="B509">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G509" s="4" t="b">
         <f t="shared" si="14"/>
@@ -14992,7 +14980,7 @@
       </c>
       <c r="J509" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:10">
@@ -15000,19 +14988,19 @@
         <v>18</v>
       </c>
       <c r="B510">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C510">
         <v>1</v>
       </c>
       <c r="D510">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F510">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G510" s="4" t="b">
         <f t="shared" si="14"/>
@@ -15020,7 +15008,7 @@
       </c>
       <c r="J510" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:10">
@@ -15028,23 +15016,26 @@
         <v>18</v>
       </c>
       <c r="B511">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C511">
         <v>0</v>
       </c>
       <c r="D511">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E511">
         <v>0</v>
       </c>
       <c r="F511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G511" s="4" t="b">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H511">
+        <v>0</v>
       </c>
       <c r="J511" s="5">
         <f t="shared" si="15"/>
@@ -15056,7 +15047,7 @@
         <v>18</v>
       </c>
       <c r="B512">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C512">
         <v>1</v>
@@ -15068,10 +15059,13 @@
         <v>1</v>
       </c>
       <c r="F512">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G512" s="4" t="b">
         <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H512">
         <v>1</v>
       </c>
       <c r="J512" s="5">
@@ -15084,26 +15078,23 @@
         <v>18</v>
       </c>
       <c r="B513">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C513">
         <v>0</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E513">
         <v>0</v>
       </c>
       <c r="F513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" s="4" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H513">
-        <v>0</v>
+        <f t="shared" ref="G513:G576" si="16">E513=F513</f>
+        <v>1</v>
       </c>
       <c r="J513" s="5">
         <f t="shared" si="15"/>
@@ -15115,30 +15106,27 @@
         <v>18</v>
       </c>
       <c r="B514">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C514">
         <v>1</v>
       </c>
       <c r="D514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E514">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F514">
         <v>0</v>
       </c>
       <c r="G514" s="4" t="b">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H514">
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J514" s="5">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -15146,13 +15134,13 @@
         <v>18</v>
       </c>
       <c r="B515">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C515">
         <v>0</v>
       </c>
       <c r="D515">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E515">
         <v>0</v>
@@ -15161,11 +15149,11 @@
         <v>0</v>
       </c>
       <c r="G515" s="4" t="b">
-        <f t="shared" ref="G515:G578" si="16">E515=F515</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="J515" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="J515:J578" si="17">IF(H515="", F515, H515)</f>
         <v>0</v>
       </c>
     </row>
@@ -15174,10 +15162,10 @@
         <v>18</v>
       </c>
       <c r="B516">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C516">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D516">
         <v>1</v>
@@ -15193,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="J516" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15202,13 +15190,13 @@
         <v>18</v>
       </c>
       <c r="B517">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E517">
         <v>0</v>
@@ -15221,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="J517" s="5">
-        <f t="shared" ref="J517:J580" si="17">IF(H517="", F517, H517)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -15230,19 +15218,19 @@
         <v>18</v>
       </c>
       <c r="B518">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G518" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15250,7 +15238,7 @@
       </c>
       <c r="J518" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -15258,13 +15246,13 @@
         <v>18</v>
       </c>
       <c r="B519">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E519">
         <v>0</v>
@@ -15286,19 +15274,19 @@
         <v>18</v>
       </c>
       <c r="B520">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C520">
         <v>1</v>
       </c>
       <c r="D520">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F520">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G520" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15306,7 +15294,7 @@
       </c>
       <c r="J520" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:10">
@@ -15314,19 +15302,19 @@
         <v>18</v>
       </c>
       <c r="B521">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D521">
         <v>0</v>
       </c>
       <c r="E521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F521">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G521" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15334,7 +15322,7 @@
       </c>
       <c r="J521" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:10">
@@ -15342,10 +15330,10 @@
         <v>18</v>
       </c>
       <c r="B522">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C522">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522">
         <v>1</v>
@@ -15370,7 +15358,7 @@
         <v>18</v>
       </c>
       <c r="B523">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C523">
         <v>1</v>
@@ -15382,10 +15370,13 @@
         <v>1</v>
       </c>
       <c r="F523">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G523" s="4" t="b">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H523">
         <v>1</v>
       </c>
       <c r="J523" s="5">
@@ -15398,13 +15389,13 @@
         <v>18</v>
       </c>
       <c r="B524">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C524">
         <v>0</v>
       </c>
       <c r="D524">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E524">
         <v>0</v>
@@ -15426,30 +15417,27 @@
         <v>18</v>
       </c>
       <c r="B525">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F525">
         <v>0</v>
       </c>
       <c r="G525" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H525">
         <v>1</v>
       </c>
       <c r="J525" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:10">
@@ -15457,13 +15445,13 @@
         <v>18</v>
       </c>
       <c r="B526">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D526">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E526">
         <v>0</v>
@@ -15482,22 +15470,22 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B527">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D527">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F527">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G527" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15505,18 +15493,18 @@
       </c>
       <c r="J527" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B528">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C528">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D528">
         <v>1</v>
@@ -15541,19 +15529,19 @@
         <v>19</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D529">
         <v>0</v>
       </c>
       <c r="E529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G529" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15561,7 +15549,7 @@
       </c>
       <c r="J529" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:10">
@@ -15569,27 +15557,30 @@
         <v>19</v>
       </c>
       <c r="B530">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D530">
         <v>1</v>
       </c>
       <c r="E530">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F530">
         <v>0</v>
       </c>
       <c r="G530" s="4" t="b">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H530">
         <v>1</v>
       </c>
       <c r="J530" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:10">
@@ -15597,13 +15588,13 @@
         <v>19</v>
       </c>
       <c r="B531">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C531">
         <v>0</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E531">
         <v>0</v>
@@ -15625,25 +15616,22 @@
         <v>19</v>
       </c>
       <c r="B532">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C532">
         <v>1</v>
       </c>
       <c r="D532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E532">
         <v>1</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G532" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H532">
         <v>1</v>
       </c>
       <c r="J532" s="5">
@@ -15656,13 +15644,13 @@
         <v>19</v>
       </c>
       <c r="B533">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C533">
         <v>0</v>
       </c>
       <c r="D533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E533">
         <v>0</v>
@@ -15684,27 +15672,30 @@
         <v>19</v>
       </c>
       <c r="B534">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C534">
         <v>1</v>
       </c>
       <c r="D534">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E534">
         <v>1</v>
       </c>
       <c r="F534">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G534" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H534">
+        <v>0</v>
       </c>
       <c r="J534" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:10">
@@ -15712,13 +15703,13 @@
         <v>19</v>
       </c>
       <c r="B535">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C535">
         <v>0</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E535">
         <v>0</v>
@@ -15740,26 +15731,23 @@
         <v>19</v>
       </c>
       <c r="B536">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F536">
         <v>0</v>
       </c>
       <c r="G536" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J536" s="5">
         <f t="shared" si="17"/>
@@ -15771,19 +15759,19 @@
         <v>19</v>
       </c>
       <c r="B537">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D537">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F537">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G537" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15791,7 +15779,7 @@
       </c>
       <c r="J537" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:10">
@@ -15799,13 +15787,13 @@
         <v>19</v>
       </c>
       <c r="B538">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C538">
         <v>0</v>
       </c>
       <c r="D538">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E538">
         <v>0</v>
@@ -15827,27 +15815,30 @@
         <v>19</v>
       </c>
       <c r="B539">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C539">
         <v>1</v>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539">
         <v>1</v>
       </c>
       <c r="F539">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H539">
+        <v>0</v>
       </c>
       <c r="J539" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:10">
@@ -15855,19 +15846,19 @@
         <v>19</v>
       </c>
       <c r="B540">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D540">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F540">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G540" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15875,7 +15866,7 @@
       </c>
       <c r="J540" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:10">
@@ -15883,26 +15874,23 @@
         <v>19</v>
       </c>
       <c r="B541">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E541">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F541">
         <v>0</v>
       </c>
       <c r="G541" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J541" s="5">
         <f t="shared" si="17"/>
@@ -15914,13 +15902,13 @@
         <v>19</v>
       </c>
       <c r="B542">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C542">
         <v>1</v>
       </c>
       <c r="D542">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E542">
         <v>1</v>
@@ -15942,7 +15930,7 @@
         <v>19</v>
       </c>
       <c r="B543">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C543">
         <v>0</v>
@@ -15970,19 +15958,19 @@
         <v>19</v>
       </c>
       <c r="B544">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D544">
         <v>1</v>
       </c>
       <c r="E544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F544">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G544" s="4" t="b">
         <f t="shared" si="16"/>
@@ -15990,7 +15978,7 @@
       </c>
       <c r="J544" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:10">
@@ -15998,13 +15986,13 @@
         <v>19</v>
       </c>
       <c r="B545">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C545">
         <v>0</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E545">
         <v>0</v>
@@ -16026,13 +16014,13 @@
         <v>19</v>
       </c>
       <c r="B546">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C546">
         <v>0</v>
       </c>
       <c r="D546">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546">
         <v>0</v>
@@ -16054,10 +16042,10 @@
         <v>19</v>
       </c>
       <c r="B547">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C547">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D547">
         <v>1</v>
@@ -16082,13 +16070,13 @@
         <v>19</v>
       </c>
       <c r="B548">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C548">
         <v>0</v>
       </c>
       <c r="D548">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E548">
         <v>0</v>
@@ -16110,13 +16098,13 @@
         <v>19</v>
       </c>
       <c r="B549">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D549">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E549">
         <v>0</v>
@@ -16138,13 +16126,13 @@
         <v>19</v>
       </c>
       <c r="B550">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C550">
         <v>0</v>
       </c>
       <c r="D550">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E550">
         <v>0</v>
@@ -16166,13 +16154,13 @@
         <v>19</v>
       </c>
       <c r="B551">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C551">
         <v>0</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E551">
         <v>0</v>
@@ -16194,35 +16182,38 @@
         <v>19</v>
       </c>
       <c r="B552">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F552">
         <v>0</v>
       </c>
       <c r="G552" s="4" t="b">
         <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H552">
         <v>1</v>
       </c>
       <c r="J552" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B553">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C553">
         <v>0</v>
@@ -16247,33 +16238,30 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B554">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E554">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F554">
         <v>0</v>
       </c>
       <c r="G554" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H554">
         <v>1</v>
       </c>
       <c r="J554" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -16281,10 +16269,10 @@
         <v>20</v>
       </c>
       <c r="B555">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C555">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D555">
         <v>1</v>
@@ -16309,13 +16297,13 @@
         <v>20</v>
       </c>
       <c r="B556">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D556">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E556">
         <v>0</v>
@@ -16337,10 +16325,10 @@
         <v>20</v>
       </c>
       <c r="B557">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C557">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D557">
         <v>1</v>
@@ -16365,13 +16353,13 @@
         <v>20</v>
       </c>
       <c r="B558">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E558">
         <v>0</v>
@@ -16393,23 +16381,26 @@
         <v>20</v>
       </c>
       <c r="B559">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D559">
         <v>1</v>
       </c>
       <c r="E559">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F559">
         <v>0</v>
       </c>
       <c r="G559" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
       </c>
       <c r="J559" s="5">
         <f t="shared" si="17"/>
@@ -16421,7 +16412,7 @@
         <v>20</v>
       </c>
       <c r="B560">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C560">
         <v>0</v>
@@ -16449,26 +16440,23 @@
         <v>20</v>
       </c>
       <c r="B561">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D561">
         <v>1</v>
       </c>
       <c r="E561">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F561">
         <v>0</v>
       </c>
       <c r="G561" s="4" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J561" s="5">
         <f t="shared" si="17"/>
@@ -16480,19 +16468,19 @@
         <v>20</v>
       </c>
       <c r="B562">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D562">
         <v>0</v>
       </c>
       <c r="E562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F562">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G562" s="4" t="b">
         <f t="shared" si="16"/>
@@ -16500,7 +16488,7 @@
       </c>
       <c r="J562" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:10">
@@ -16508,10 +16496,10 @@
         <v>20</v>
       </c>
       <c r="B563">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D563">
         <v>1</v>
@@ -16536,19 +16524,19 @@
         <v>20</v>
       </c>
       <c r="B564">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D564">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F564">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G564" s="4" t="b">
         <f t="shared" si="16"/>
@@ -16556,7 +16544,7 @@
       </c>
       <c r="J564" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:10">
@@ -16564,13 +16552,13 @@
         <v>20</v>
       </c>
       <c r="B565">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D565">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E565">
         <v>0</v>
@@ -16592,19 +16580,19 @@
         <v>20</v>
       </c>
       <c r="B566">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D566">
         <v>1</v>
       </c>
       <c r="E566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F566">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G566" s="4" t="b">
         <f t="shared" si="16"/>
@@ -16612,7 +16600,7 @@
       </c>
       <c r="J566" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -16620,13 +16608,13 @@
         <v>20</v>
       </c>
       <c r="B567">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C567">
         <v>0</v>
       </c>
       <c r="D567">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E567">
         <v>0</v>
@@ -16648,19 +16636,19 @@
         <v>20</v>
       </c>
       <c r="B568">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F568">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G568" s="4" t="b">
         <f t="shared" si="16"/>
@@ -16668,7 +16656,7 @@
       </c>
       <c r="J568" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:10">
@@ -16676,7 +16664,7 @@
         <v>20</v>
       </c>
       <c r="B569">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C569">
         <v>0</v>
@@ -16704,7 +16692,7 @@
         <v>20</v>
       </c>
       <c r="B570">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C570">
         <v>0</v>
@@ -16732,10 +16720,10 @@
         <v>20</v>
       </c>
       <c r="B571">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C571">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D571">
         <v>1</v>
@@ -16760,13 +16748,13 @@
         <v>20</v>
       </c>
       <c r="B572">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C572">
         <v>0</v>
       </c>
       <c r="D572">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E572">
         <v>0</v>
@@ -16788,7 +16776,7 @@
         <v>20</v>
       </c>
       <c r="B573">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C573">
         <v>1</v>
@@ -16816,13 +16804,13 @@
         <v>20</v>
       </c>
       <c r="B574">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C574">
         <v>0</v>
       </c>
       <c r="D574">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E574">
         <v>0</v>
@@ -16844,19 +16832,19 @@
         <v>20</v>
       </c>
       <c r="B575">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C575">
         <v>1</v>
       </c>
       <c r="D575">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F575">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G575" s="4" t="b">
         <f t="shared" si="16"/>
@@ -16864,7 +16852,7 @@
       </c>
       <c r="J575" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:10">
@@ -16872,13 +16860,13 @@
         <v>20</v>
       </c>
       <c r="B576">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C576">
         <v>0</v>
       </c>
       <c r="D576">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E576">
         <v>0</v>
@@ -16900,38 +16888,38 @@
         <v>20</v>
       </c>
       <c r="B577">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C577">
         <v>1</v>
       </c>
       <c r="D577">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F577">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G577" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G577:G640" si="18">E577=F577</f>
         <v>1</v>
       </c>
       <c r="J577" s="5">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B578">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="C578">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D578">
         <v>1</v>
@@ -16943,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="G578" s="4" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J578" s="5">
@@ -16953,16 +16941,16 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B579">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D579">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E579">
         <v>0</v>
@@ -16971,11 +16959,11 @@
         <v>0</v>
       </c>
       <c r="G579" s="4" t="b">
-        <f t="shared" ref="G579:G642" si="18">E579=F579</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J579" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J579:J642" si="19">IF(H579="", F579, H579)</f>
         <v>0</v>
       </c>
     </row>
@@ -16984,27 +16972,30 @@
         <v>21</v>
       </c>
       <c r="B580">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C580">
         <v>1</v>
       </c>
       <c r="D580">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E580">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F580">
         <v>0</v>
       </c>
       <c r="G580" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H580">
         <v>1</v>
       </c>
       <c r="J580" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:10">
@@ -17012,7 +17003,7 @@
         <v>21</v>
       </c>
       <c r="B581">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C581">
         <v>0</v>
@@ -17031,7 +17022,7 @@
         <v>1</v>
       </c>
       <c r="J581" s="5">
-        <f t="shared" ref="J581:J644" si="19">IF(H581="", F581, H581)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17040,30 +17031,27 @@
         <v>21</v>
       </c>
       <c r="B582">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D582">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E582">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F582">
         <v>0</v>
       </c>
       <c r="G582" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H582">
         <v>1</v>
       </c>
       <c r="J582" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:10">
@@ -17071,27 +17059,30 @@
         <v>21</v>
       </c>
       <c r="B583">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D583">
         <v>0</v>
       </c>
       <c r="E583">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F583">
         <v>0</v>
       </c>
       <c r="G583" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H583">
         <v>1</v>
       </c>
       <c r="J583" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:10">
@@ -17099,10 +17090,10 @@
         <v>21</v>
       </c>
       <c r="B584">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D584">
         <v>1</v>
@@ -17127,13 +17118,13 @@
         <v>21</v>
       </c>
       <c r="B585">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C585">
         <v>1</v>
       </c>
       <c r="D585">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E585">
         <v>1</v>
@@ -17146,11 +17137,11 @@
         <v>0</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J585" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:10">
@@ -17158,19 +17149,19 @@
         <v>21</v>
       </c>
       <c r="B586">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C586">
         <v>1</v>
       </c>
       <c r="D586">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F586">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G586" s="4" t="b">
         <f t="shared" si="18"/>
@@ -17178,7 +17169,7 @@
       </c>
       <c r="J586" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:10">
@@ -17186,26 +17177,23 @@
         <v>21</v>
       </c>
       <c r="B587">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E587">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F587">
         <v>0</v>
       </c>
       <c r="G587" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" s="5">
         <f t="shared" si="19"/>
@@ -17217,19 +17205,19 @@
         <v>21</v>
       </c>
       <c r="B588">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D588">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F588">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G588" s="4" t="b">
         <f t="shared" si="18"/>
@@ -17237,7 +17225,7 @@
       </c>
       <c r="J588" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:10">
@@ -17245,13 +17233,13 @@
         <v>21</v>
       </c>
       <c r="B589">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D589">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E589">
         <v>0</v>
@@ -17273,7 +17261,7 @@
         <v>21</v>
       </c>
       <c r="B590">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C590">
         <v>0</v>
@@ -17301,13 +17289,13 @@
         <v>21</v>
       </c>
       <c r="B591">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D591">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E591">
         <v>0</v>
@@ -17329,27 +17317,30 @@
         <v>21</v>
       </c>
       <c r="B592">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E592">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F592">
         <v>0</v>
       </c>
       <c r="G592" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H592">
         <v>1</v>
       </c>
       <c r="J592" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:10">
@@ -17357,27 +17348,33 @@
         <v>21</v>
       </c>
       <c r="B593">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D593">
         <v>0</v>
       </c>
       <c r="E593">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F593">
         <v>0</v>
       </c>
       <c r="G593" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H593">
+        <v>1</v>
+      </c>
+      <c r="I593" t="s">
+        <v>8</v>
       </c>
       <c r="J593" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:10">
@@ -17385,30 +17382,27 @@
         <v>21</v>
       </c>
       <c r="B594">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D594">
         <v>0</v>
       </c>
       <c r="E594">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F594">
         <v>0</v>
       </c>
       <c r="G594" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H594">
         <v>1</v>
       </c>
       <c r="J594" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:10">
@@ -17416,33 +17410,27 @@
         <v>21</v>
       </c>
       <c r="B595">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D595">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E595">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F595">
         <v>0</v>
       </c>
       <c r="G595" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H595">
-        <v>1</v>
-      </c>
-      <c r="I595" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J595" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -17450,13 +17438,13 @@
         <v>21</v>
       </c>
       <c r="B596">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E596">
         <v>0</v>
@@ -17478,13 +17466,13 @@
         <v>21</v>
       </c>
       <c r="B597">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C597">
         <v>0</v>
       </c>
       <c r="D597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E597">
         <v>0</v>
@@ -17506,10 +17494,10 @@
         <v>21</v>
       </c>
       <c r="B598">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C598">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D598">
         <v>1</v>
@@ -17534,27 +17522,30 @@
         <v>21</v>
       </c>
       <c r="B599">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D599">
         <v>0</v>
       </c>
       <c r="E599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F599">
         <v>0</v>
       </c>
       <c r="G599" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H599">
         <v>1</v>
       </c>
       <c r="J599" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:10">
@@ -17562,27 +17553,30 @@
         <v>21</v>
       </c>
       <c r="B600">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D600">
         <v>1</v>
       </c>
       <c r="E600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F600">
         <v>0</v>
       </c>
       <c r="G600" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H600">
         <v>1</v>
       </c>
       <c r="J600" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:10">
@@ -17590,7 +17584,7 @@
         <v>21</v>
       </c>
       <c r="B601">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C601">
         <v>1</v>
@@ -17609,11 +17603,11 @@
         <v>0</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J601" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -17621,30 +17615,27 @@
         <v>21</v>
       </c>
       <c r="B602">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E602">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F602">
         <v>0</v>
       </c>
       <c r="G602" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H602">
         <v>1</v>
       </c>
       <c r="J602" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -17652,26 +17643,23 @@
         <v>21</v>
       </c>
       <c r="B603">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F603">
         <v>0</v>
       </c>
       <c r="G603" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J603" s="5">
         <f t="shared" si="19"/>
@@ -17683,13 +17671,13 @@
         <v>21</v>
       </c>
       <c r="B604">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D604">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E604">
         <v>0</v>
@@ -17711,7 +17699,7 @@
         <v>21</v>
       </c>
       <c r="B605">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C605">
         <v>0</v>
@@ -17739,27 +17727,30 @@
         <v>21</v>
       </c>
       <c r="B606">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C606">
         <v>1</v>
       </c>
       <c r="D606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E606">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F606">
         <v>0</v>
       </c>
       <c r="G606" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H606">
         <v>1</v>
       </c>
       <c r="J606" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:10">
@@ -17767,13 +17758,13 @@
         <v>21</v>
       </c>
       <c r="B607">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C607">
         <v>0</v>
       </c>
       <c r="D607">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E607">
         <v>0</v>
@@ -17795,13 +17786,13 @@
         <v>21</v>
       </c>
       <c r="B608">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C608">
         <v>1</v>
       </c>
       <c r="D608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E608">
         <v>1</v>
@@ -17814,31 +17805,31 @@
         <v>0</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J608" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B609">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D609">
         <v>0</v>
       </c>
       <c r="E609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F609">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G609" s="4" t="b">
         <f t="shared" si="18"/>
@@ -17846,34 +17837,31 @@
       </c>
       <c r="J609" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B610">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D610">
         <v>1</v>
       </c>
       <c r="E610">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F610">
         <v>0</v>
       </c>
       <c r="G610" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J610" s="5">
         <f t="shared" si="19"/>
@@ -17885,19 +17873,19 @@
         <v>22</v>
       </c>
       <c r="B611">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D611">
         <v>0</v>
       </c>
       <c r="E611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F611">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G611" s="4" t="b">
         <f t="shared" si="18"/>
@@ -17905,7 +17893,7 @@
       </c>
       <c r="J611" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:10">
@@ -17913,10 +17901,10 @@
         <v>22</v>
       </c>
       <c r="B612">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C612">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D612">
         <v>1</v>
@@ -17941,13 +17929,13 @@
         <v>22</v>
       </c>
       <c r="B613">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C613">
         <v>0</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E613">
         <v>0</v>
@@ -17969,7 +17957,7 @@
         <v>22</v>
       </c>
       <c r="B614">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C614">
         <v>1</v>
@@ -17978,18 +17966,21 @@
         <v>1</v>
       </c>
       <c r="E614">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F614">
         <v>0</v>
       </c>
       <c r="G614" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H614">
         <v>1</v>
       </c>
       <c r="J614" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:10">
@@ -17997,13 +17988,13 @@
         <v>22</v>
       </c>
       <c r="B615">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C615">
         <v>0</v>
       </c>
       <c r="D615">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E615">
         <v>0</v>
@@ -18025,25 +18016,22 @@
         <v>22</v>
       </c>
       <c r="B616">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C616">
         <v>1</v>
       </c>
       <c r="D616">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E616">
         <v>1</v>
       </c>
       <c r="F616">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G616" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H616">
         <v>1</v>
       </c>
       <c r="J616" s="5">
@@ -18056,7 +18044,7 @@
         <v>22</v>
       </c>
       <c r="B617">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C617">
         <v>0</v>
@@ -18084,19 +18072,19 @@
         <v>22</v>
       </c>
       <c r="B618">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D618">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F618">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G618" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18104,7 +18092,7 @@
       </c>
       <c r="J618" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -18112,23 +18100,26 @@
         <v>22</v>
       </c>
       <c r="B619">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E619">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F619">
         <v>0</v>
       </c>
       <c r="G619" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H619">
+        <v>0</v>
       </c>
       <c r="J619" s="5">
         <f t="shared" si="19"/>
@@ -18140,27 +18131,30 @@
         <v>22</v>
       </c>
       <c r="B620">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D620">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E620">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F620">
         <v>0</v>
       </c>
       <c r="G620" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H620">
         <v>1</v>
       </c>
       <c r="J620" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:10">
@@ -18168,30 +18162,27 @@
         <v>22</v>
       </c>
       <c r="B621">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C621">
         <v>1</v>
       </c>
       <c r="D621">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E621">
         <v>1</v>
       </c>
       <c r="F621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G621" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J621" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:10">
@@ -18199,30 +18190,27 @@
         <v>22</v>
       </c>
       <c r="B622">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C622">
         <v>1</v>
       </c>
       <c r="D622">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E622">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F622">
         <v>0</v>
       </c>
       <c r="G622" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H622">
         <v>1</v>
       </c>
       <c r="J622" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:10">
@@ -18230,19 +18218,19 @@
         <v>22</v>
       </c>
       <c r="B623">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D623">
         <v>0</v>
       </c>
       <c r="E623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F623">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G623" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18250,7 +18238,7 @@
       </c>
       <c r="J623" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:10">
@@ -18258,10 +18246,10 @@
         <v>22</v>
       </c>
       <c r="B624">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C624">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D624">
         <v>1</v>
@@ -18286,13 +18274,13 @@
         <v>22</v>
       </c>
       <c r="B625">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C625">
         <v>0</v>
       </c>
       <c r="D625">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E625">
         <v>0</v>
@@ -18314,13 +18302,13 @@
         <v>22</v>
       </c>
       <c r="B626">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C626">
         <v>0</v>
       </c>
       <c r="D626">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E626">
         <v>0</v>
@@ -18342,23 +18330,26 @@
         <v>22</v>
       </c>
       <c r="B627">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D627">
         <v>1</v>
       </c>
       <c r="E627">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F627">
         <v>0</v>
       </c>
       <c r="G627" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H627">
+        <v>0</v>
       </c>
       <c r="J627" s="5">
         <f t="shared" si="19"/>
@@ -18370,27 +18361,30 @@
         <v>22</v>
       </c>
       <c r="B628">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D628">
         <v>0</v>
       </c>
       <c r="E628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F628">
         <v>0</v>
       </c>
       <c r="G628" s="4" t="b">
         <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H628">
         <v>1</v>
       </c>
       <c r="J628" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:10">
@@ -18398,26 +18392,23 @@
         <v>22</v>
       </c>
       <c r="B629">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E629">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F629">
         <v>0</v>
       </c>
       <c r="G629" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J629" s="5">
         <f t="shared" si="19"/>
@@ -18429,30 +18420,27 @@
         <v>22</v>
       </c>
       <c r="B630">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E630">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F630">
         <v>0</v>
       </c>
       <c r="G630" s="4" t="b">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H630">
         <v>1</v>
       </c>
       <c r="J630" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:10">
@@ -18460,19 +18448,19 @@
         <v>22</v>
       </c>
       <c r="B631">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D631">
         <v>0</v>
       </c>
       <c r="E631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F631">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G631" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18480,7 +18468,7 @@
       </c>
       <c r="J631" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:10">
@@ -18488,10 +18476,10 @@
         <v>22</v>
       </c>
       <c r="B632">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D632">
         <v>1</v>
@@ -18516,19 +18504,19 @@
         <v>22</v>
       </c>
       <c r="B633">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D633">
         <v>0</v>
       </c>
       <c r="E633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G633" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18536,7 +18524,7 @@
       </c>
       <c r="J633" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:10">
@@ -18544,10 +18532,10 @@
         <v>22</v>
       </c>
       <c r="B634">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C634">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D634">
         <v>1</v>
@@ -18572,13 +18560,13 @@
         <v>22</v>
       </c>
       <c r="B635">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D635">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E635">
         <v>0</v>
@@ -18600,19 +18588,19 @@
         <v>22</v>
       </c>
       <c r="B636">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D636">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F636">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G636" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18620,7 +18608,7 @@
       </c>
       <c r="J636" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:10">
@@ -18628,10 +18616,10 @@
         <v>22</v>
       </c>
       <c r="B637">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C637">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D637">
         <v>1</v>
@@ -18656,19 +18644,19 @@
         <v>22</v>
       </c>
       <c r="B638">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C638">
         <v>1</v>
       </c>
       <c r="D638">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F638">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G638" s="4" t="b">
         <f t="shared" si="18"/>
@@ -18676,7 +18664,7 @@
       </c>
       <c r="J638" s="5">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -18684,13 +18672,13 @@
         <v>22</v>
       </c>
       <c r="B639">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C639">
         <v>0</v>
       </c>
       <c r="D639">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E639">
         <v>0</v>
@@ -18712,13 +18700,13 @@
         <v>22</v>
       </c>
       <c r="B640">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C640">
         <v>1</v>
       </c>
       <c r="D640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E640">
         <v>0</v>
@@ -18737,16 +18725,16 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B641">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C641">
         <v>0</v>
       </c>
       <c r="D641">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E641">
         <v>0</v>
@@ -18755,7 +18743,7 @@
         <v>0</v>
       </c>
       <c r="G641" s="4" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G641:G704" si="20">E641=F641</f>
         <v>1</v>
       </c>
       <c r="J641" s="5">
@@ -18765,13 +18753,13 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B642">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="C642">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D642">
         <v>0</v>
@@ -18783,7 +18771,7 @@
         <v>0</v>
       </c>
       <c r="G642" s="4" t="b">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J642" s="5">
@@ -18796,27 +18784,30 @@
         <v>23</v>
       </c>
       <c r="B643">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D643">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E643">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F643">
         <v>0</v>
       </c>
       <c r="G643" s="4" t="b">
-        <f t="shared" ref="G643:G706" si="20">E643=F643</f>
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H643">
         <v>1</v>
       </c>
       <c r="J643" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="J643:J706" si="21">IF(H643="", F643, H643)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:10">
@@ -18824,27 +18815,27 @@
         <v>23</v>
       </c>
       <c r="B644">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G644" s="4" t="b">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="J644" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:10">
@@ -18852,13 +18843,13 @@
         <v>23</v>
       </c>
       <c r="B645">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C645">
         <v>1</v>
       </c>
       <c r="D645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E645">
         <v>1</v>
@@ -18874,7 +18865,7 @@
         <v>1</v>
       </c>
       <c r="J645" s="5">
-        <f t="shared" ref="J645:J708" si="21">IF(H645="", F645, H645)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
     </row>
@@ -18883,27 +18874,30 @@
         <v>23</v>
       </c>
       <c r="B646">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E646">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F646">
         <v>1</v>
       </c>
       <c r="G646" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>0</v>
       </c>
       <c r="J646" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:10">
@@ -18911,30 +18905,27 @@
         <v>23</v>
       </c>
       <c r="B647">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D647">
         <v>1</v>
       </c>
       <c r="E647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F647">
         <v>0</v>
       </c>
       <c r="G647" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H647">
         <v>1</v>
       </c>
       <c r="J647" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -18942,30 +18933,30 @@
         <v>23</v>
       </c>
       <c r="B648">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D648">
         <v>0</v>
       </c>
       <c r="E648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F648">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G648" s="4" t="b">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J648" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:10">
@@ -18973,10 +18964,10 @@
         <v>23</v>
       </c>
       <c r="B649">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C649">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649">
         <v>1</v>
@@ -19001,30 +18992,27 @@
         <v>23</v>
       </c>
       <c r="B650">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D650">
         <v>0</v>
       </c>
       <c r="E650">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F650">
         <v>0</v>
       </c>
       <c r="G650" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H650">
         <v>1</v>
       </c>
       <c r="J650" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:10">
@@ -19032,10 +19020,10 @@
         <v>23</v>
       </c>
       <c r="B651">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C651">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D651">
         <v>1</v>
@@ -19060,7 +19048,7 @@
         <v>23</v>
       </c>
       <c r="B652">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C652">
         <v>0</v>
@@ -19088,10 +19076,10 @@
         <v>23</v>
       </c>
       <c r="B653">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C653">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D653">
         <v>1</v>
@@ -19116,13 +19104,13 @@
         <v>23</v>
       </c>
       <c r="B654">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C654">
         <v>0</v>
       </c>
       <c r="D654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E654">
         <v>0</v>
@@ -19144,27 +19132,30 @@
         <v>23</v>
       </c>
       <c r="B655">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C655">
         <v>1</v>
       </c>
       <c r="D655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E655">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F655">
         <v>0</v>
       </c>
       <c r="G655" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H655">
         <v>1</v>
       </c>
       <c r="J655" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -19172,10 +19163,10 @@
         <v>23</v>
       </c>
       <c r="B656">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C656">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D656">
         <v>1</v>
@@ -19200,30 +19191,27 @@
         <v>23</v>
       </c>
       <c r="B657">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D657">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E657">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F657">
         <v>0</v>
       </c>
       <c r="G657" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H657">
         <v>1</v>
       </c>
       <c r="J657" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -19231,27 +19219,30 @@
         <v>23</v>
       </c>
       <c r="B658">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C658">
         <v>1</v>
       </c>
       <c r="D658">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E658">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F658">
         <v>0</v>
       </c>
       <c r="G658" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H658">
         <v>1</v>
       </c>
       <c r="J658" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:10">
@@ -19259,13 +19250,13 @@
         <v>23</v>
       </c>
       <c r="B659">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C659">
         <v>0</v>
       </c>
       <c r="D659">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E659">
         <v>0</v>
@@ -19287,30 +19278,27 @@
         <v>23</v>
       </c>
       <c r="B660">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D660">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F660">
         <v>0</v>
       </c>
       <c r="G660" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H660">
         <v>1</v>
       </c>
       <c r="J660" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:10">
@@ -19318,7 +19306,7 @@
         <v>23</v>
       </c>
       <c r="B661">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C661">
         <v>0</v>
@@ -19346,27 +19334,30 @@
         <v>23</v>
       </c>
       <c r="B662">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D662">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E662">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F662">
         <v>0</v>
       </c>
       <c r="G662" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H662">
         <v>1</v>
       </c>
       <c r="J662" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -19374,13 +19365,13 @@
         <v>23</v>
       </c>
       <c r="B663">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D663">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E663">
         <v>0</v>
@@ -19402,30 +19393,27 @@
         <v>23</v>
       </c>
       <c r="B664">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D664">
         <v>0</v>
       </c>
       <c r="E664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F664">
         <v>0</v>
       </c>
       <c r="G664" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H664">
         <v>1</v>
       </c>
       <c r="J664" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:10">
@@ -19433,10 +19421,10 @@
         <v>23</v>
       </c>
       <c r="B665">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C665">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D665">
         <v>1</v>
@@ -19461,13 +19449,13 @@
         <v>23</v>
       </c>
       <c r="B666">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D666">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E666">
         <v>0</v>
@@ -19489,27 +19477,30 @@
         <v>23</v>
       </c>
       <c r="B667">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D667">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E667">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F667">
         <v>0</v>
       </c>
       <c r="G667" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H667">
         <v>1</v>
       </c>
       <c r="J667" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:10">
@@ -19517,27 +19508,30 @@
         <v>23</v>
       </c>
       <c r="B668">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C668">
         <v>1</v>
       </c>
       <c r="D668">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E668">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F668">
         <v>0</v>
       </c>
       <c r="G668" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H668">
         <v>1</v>
       </c>
       <c r="J668" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:10">
@@ -19545,30 +19539,27 @@
         <v>23</v>
       </c>
       <c r="B669">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D669">
         <v>0</v>
       </c>
       <c r="E669">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F669">
         <v>0</v>
       </c>
       <c r="G669" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H669">
         <v>1</v>
       </c>
       <c r="J669" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:10">
@@ -19576,30 +19567,27 @@
         <v>23</v>
       </c>
       <c r="B670">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D670">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E670">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F670">
         <v>0</v>
       </c>
       <c r="G670" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H670">
         <v>1</v>
       </c>
       <c r="J670" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:10">
@@ -19607,38 +19595,41 @@
         <v>23</v>
       </c>
       <c r="B671">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F671">
         <v>0</v>
       </c>
       <c r="G671" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H671">
         <v>1</v>
       </c>
       <c r="J671" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B672">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D672">
         <v>1</v>
@@ -19660,33 +19651,30 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B673">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D673">
         <v>1</v>
       </c>
       <c r="E673">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F673">
         <v>0</v>
       </c>
       <c r="G673" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H673">
         <v>1</v>
       </c>
       <c r="J673" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:10">
@@ -19694,13 +19682,13 @@
         <v>24</v>
       </c>
       <c r="B674">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D674">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E674">
         <v>0</v>
@@ -19722,19 +19710,19 @@
         <v>24</v>
       </c>
       <c r="B675">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D675">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F675">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G675" s="4" t="b">
         <f t="shared" si="20"/>
@@ -19742,7 +19730,7 @@
       </c>
       <c r="J675" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="1:10">
@@ -19750,13 +19738,13 @@
         <v>24</v>
       </c>
       <c r="B676">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C676">
         <v>0</v>
       </c>
       <c r="D676">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E676">
         <v>0</v>
@@ -19778,7 +19766,7 @@
         <v>24</v>
       </c>
       <c r="B677">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C677">
         <v>1</v>
@@ -19806,13 +19794,13 @@
         <v>24</v>
       </c>
       <c r="B678">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C678">
         <v>0</v>
       </c>
       <c r="D678">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E678">
         <v>0</v>
@@ -19834,19 +19822,19 @@
         <v>24</v>
       </c>
       <c r="B679">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C679">
         <v>1</v>
       </c>
       <c r="D679">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G679" s="4" t="b">
         <f t="shared" si="20"/>
@@ -19854,7 +19842,7 @@
       </c>
       <c r="J679" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:10">
@@ -19862,13 +19850,13 @@
         <v>24</v>
       </c>
       <c r="B680">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D680">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E680">
         <v>0</v>
@@ -19890,13 +19878,13 @@
         <v>24</v>
       </c>
       <c r="B681">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E681">
         <v>0</v>
@@ -19918,10 +19906,10 @@
         <v>24</v>
       </c>
       <c r="B682">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C682">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D682">
         <v>1</v>
@@ -19946,27 +19934,30 @@
         <v>24</v>
       </c>
       <c r="B683">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D683">
         <v>0</v>
       </c>
       <c r="E683">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F683">
         <v>0</v>
       </c>
       <c r="G683" s="4" t="b">
         <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H683">
         <v>1</v>
       </c>
       <c r="J683" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:10">
@@ -19974,10 +19965,10 @@
         <v>24</v>
       </c>
       <c r="B684">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D684">
         <v>1</v>
@@ -20002,7 +19993,7 @@
         <v>24</v>
       </c>
       <c r="B685">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C685">
         <v>1</v>
@@ -20014,13 +20005,10 @@
         <v>1</v>
       </c>
       <c r="F685">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G685" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H685">
         <v>1</v>
       </c>
       <c r="J685" s="5">
@@ -20033,10 +20021,10 @@
         <v>24</v>
       </c>
       <c r="B686">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C686">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D686">
         <v>1</v>
@@ -20061,19 +20049,19 @@
         <v>24</v>
       </c>
       <c r="B687">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D687">
         <v>0</v>
       </c>
       <c r="E687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F687">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G687" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20081,7 +20069,7 @@
       </c>
       <c r="J687" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:10">
@@ -20089,13 +20077,13 @@
         <v>24</v>
       </c>
       <c r="B688">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C688">
         <v>0</v>
       </c>
       <c r="D688">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E688">
         <v>0</v>
@@ -20117,13 +20105,13 @@
         <v>24</v>
       </c>
       <c r="B689">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C689">
         <v>0</v>
       </c>
       <c r="D689">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E689">
         <v>0</v>
@@ -20145,19 +20133,19 @@
         <v>24</v>
       </c>
       <c r="B690">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D690">
         <v>0</v>
       </c>
       <c r="E690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F690">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G690" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20165,7 +20153,7 @@
       </c>
       <c r="J690" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:10">
@@ -20173,23 +20161,26 @@
         <v>24</v>
       </c>
       <c r="B691">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D691">
         <v>1</v>
       </c>
       <c r="E691">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F691">
         <v>0</v>
       </c>
       <c r="G691" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H691">
+        <v>0</v>
       </c>
       <c r="J691" s="5">
         <f t="shared" si="21"/>
@@ -20201,19 +20192,19 @@
         <v>24</v>
       </c>
       <c r="B692">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D692">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F692">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G692" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20221,7 +20212,7 @@
       </c>
       <c r="J692" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:10">
@@ -20229,30 +20220,27 @@
         <v>24</v>
       </c>
       <c r="B693">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C693">
         <v>1</v>
       </c>
       <c r="D693">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E693">
         <v>1</v>
       </c>
       <c r="F693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G693" s="4" t="b">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J693" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:10">
@@ -20260,10 +20248,10 @@
         <v>24</v>
       </c>
       <c r="B694">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C694">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D694">
         <v>1</v>
@@ -20288,19 +20276,19 @@
         <v>24</v>
       </c>
       <c r="B695">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D695">
         <v>0</v>
       </c>
       <c r="E695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F695">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G695" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20308,7 +20296,7 @@
       </c>
       <c r="J695" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:10">
@@ -20316,10 +20304,10 @@
         <v>24</v>
       </c>
       <c r="B696">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C696">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D696">
         <v>1</v>
@@ -20344,13 +20332,13 @@
         <v>24</v>
       </c>
       <c r="B697">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D697">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E697">
         <v>0</v>
@@ -20372,19 +20360,19 @@
         <v>24</v>
       </c>
       <c r="B698">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D698">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F698">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G698" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20392,7 +20380,7 @@
       </c>
       <c r="J698" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:10">
@@ -20400,13 +20388,13 @@
         <v>24</v>
       </c>
       <c r="B699">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D699">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E699">
         <v>0</v>
@@ -20428,19 +20416,19 @@
         <v>24</v>
       </c>
       <c r="B700">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D700">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F700">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G700" s="4" t="b">
         <f t="shared" si="20"/>
@@ -20448,7 +20436,7 @@
       </c>
       <c r="J700" s="5">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:10">
@@ -20456,13 +20444,13 @@
         <v>24</v>
       </c>
       <c r="B701">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D701">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E701">
         <v>0</v>
@@ -20481,13 +20469,13 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B702">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C702">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D702">
         <v>1</v>
@@ -20509,13 +20497,13 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B703">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C703">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D703">
         <v>1</v>
@@ -20540,13 +20528,13 @@
         <v>25</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D704">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E704">
         <v>0</v>
@@ -20568,13 +20556,13 @@
         <v>25</v>
       </c>
       <c r="B705">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C705">
         <v>0</v>
       </c>
       <c r="D705">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E705">
         <v>0</v>
@@ -20583,7 +20571,7 @@
         <v>0</v>
       </c>
       <c r="G705" s="4" t="b">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G705:G728" si="22">E705=F705</f>
         <v>1</v>
       </c>
       <c r="J705" s="5">
@@ -20596,23 +20584,26 @@
         <v>25</v>
       </c>
       <c r="B706">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E706">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F706">
         <v>0</v>
       </c>
       <c r="G706" s="4" t="b">
-        <f t="shared" si="20"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H706">
+        <v>0</v>
       </c>
       <c r="J706" s="5">
         <f t="shared" si="21"/>
@@ -20624,13 +20615,13 @@
         <v>25</v>
       </c>
       <c r="B707">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C707">
         <v>0</v>
       </c>
       <c r="D707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E707">
         <v>0</v>
@@ -20639,11 +20630,11 @@
         <v>0</v>
       </c>
       <c r="G707" s="4" t="b">
-        <f t="shared" ref="G707:G730" si="22">E707=F707</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J707" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="J707:J728" si="23">IF(H707="", F707, H707)</f>
         <v>0</v>
       </c>
     </row>
@@ -20652,29 +20643,26 @@
         <v>25</v>
       </c>
       <c r="B708">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E708">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F708">
         <v>0</v>
       </c>
       <c r="G708" s="4" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J708" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20683,7 +20671,7 @@
         <v>25</v>
       </c>
       <c r="B709">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C709">
         <v>0</v>
@@ -20702,7 +20690,7 @@
         <v>1</v>
       </c>
       <c r="J709" s="5">
-        <f t="shared" ref="J709:J730" si="23">IF(H709="", F709, H709)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -20711,19 +20699,19 @@
         <v>25</v>
       </c>
       <c r="B710">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F710">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G710" s="4" t="b">
         <f t="shared" si="22"/>
@@ -20731,7 +20719,7 @@
       </c>
       <c r="J710" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:10">
@@ -20739,19 +20727,19 @@
         <v>25</v>
       </c>
       <c r="B711">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D711">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F711">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G711" s="4" t="b">
         <f t="shared" si="22"/>
@@ -20759,7 +20747,7 @@
       </c>
       <c r="J711" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:10">
@@ -20767,19 +20755,19 @@
         <v>25</v>
       </c>
       <c r="B712">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F712">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G712" s="4" t="b">
         <f t="shared" si="22"/>
@@ -20787,7 +20775,7 @@
       </c>
       <c r="J712" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:10">
@@ -20795,13 +20783,13 @@
         <v>25</v>
       </c>
       <c r="B713">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C713">
         <v>1</v>
       </c>
       <c r="D713">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E713">
         <v>1</v>
@@ -20823,13 +20811,13 @@
         <v>25</v>
       </c>
       <c r="B714">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C714">
         <v>0</v>
       </c>
       <c r="D714">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E714">
         <v>0</v>
@@ -20851,19 +20839,19 @@
         <v>25</v>
       </c>
       <c r="B715">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F715">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G715" s="4" t="b">
         <f t="shared" si="22"/>
@@ -20871,7 +20859,7 @@
       </c>
       <c r="J715" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:10">
@@ -20879,10 +20867,10 @@
         <v>25</v>
       </c>
       <c r="B716">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C716">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D716">
         <v>1</v>
@@ -20907,13 +20895,13 @@
         <v>25</v>
       </c>
       <c r="B717">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C717">
         <v>0</v>
       </c>
       <c r="D717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E717">
         <v>0</v>
@@ -20935,27 +20923,30 @@
         <v>25</v>
       </c>
       <c r="B718">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C718">
         <v>1</v>
       </c>
       <c r="D718">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F718">
         <v>0</v>
       </c>
       <c r="G718" s="4" t="b">
         <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H718">
         <v>1</v>
       </c>
       <c r="J718" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:10">
@@ -20963,23 +20954,26 @@
         <v>25</v>
       </c>
       <c r="B719">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D719">
         <v>1</v>
       </c>
       <c r="E719">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F719">
         <v>0</v>
       </c>
       <c r="G719" s="4" t="b">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H719">
+        <v>0</v>
       </c>
       <c r="J719" s="5">
         <f t="shared" si="23"/>
@@ -20991,7 +20985,7 @@
         <v>25</v>
       </c>
       <c r="B720">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C720">
         <v>1</v>
@@ -21022,26 +21016,23 @@
         <v>25</v>
       </c>
       <c r="B721">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D721">
         <v>1</v>
       </c>
       <c r="E721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F721">
         <v>0</v>
       </c>
       <c r="G721" s="4" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J721" s="5">
         <f t="shared" si="23"/>
@@ -21053,30 +21044,27 @@
         <v>25</v>
       </c>
       <c r="B722">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D722">
         <v>0</v>
       </c>
       <c r="E722">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F722">
         <v>0</v>
       </c>
       <c r="G722" s="4" t="b">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H722">
         <v>1</v>
       </c>
       <c r="J722" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:10">
@@ -21084,19 +21072,19 @@
         <v>25</v>
       </c>
       <c r="B723">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D723">
         <v>1</v>
       </c>
       <c r="E723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F723">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G723" s="4" t="b">
         <f t="shared" si="22"/>
@@ -21104,7 +21092,7 @@
       </c>
       <c r="J723" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:10">
@@ -21112,7 +21100,7 @@
         <v>25</v>
       </c>
       <c r="B724">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C724">
         <v>0</v>
@@ -21140,19 +21128,19 @@
         <v>25</v>
       </c>
       <c r="B725">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D725">
         <v>1</v>
       </c>
       <c r="E725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F725">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G725" s="4" t="b">
         <f t="shared" si="22"/>
@@ -21160,7 +21148,7 @@
       </c>
       <c r="J725" s="5">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:10">
@@ -21168,13 +21156,13 @@
         <v>25</v>
       </c>
       <c r="B726">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C726">
         <v>0</v>
       </c>
       <c r="D726">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E726">
         <v>0</v>
@@ -21196,10 +21184,10 @@
         <v>25</v>
       </c>
       <c r="B727">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C727">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D727">
         <v>1</v>
@@ -21224,13 +21212,13 @@
         <v>25</v>
       </c>
       <c r="B728">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C728">
         <v>0</v>
       </c>
       <c r="D728">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E728">
         <v>0</v>
@@ -21243,62 +21231,6 @@
         <v>1</v>
       </c>
       <c r="J728" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="729" spans="1:10">
-      <c r="A729">
-        <v>25</v>
-      </c>
-      <c r="B729">
-        <v>26</v>
-      </c>
-      <c r="C729">
-        <v>1</v>
-      </c>
-      <c r="D729">
-        <v>1</v>
-      </c>
-      <c r="E729">
-        <v>0</v>
-      </c>
-      <c r="F729">
-        <v>0</v>
-      </c>
-      <c r="G729" s="4" t="b">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J729" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="730" spans="1:10">
-      <c r="A730">
-        <v>25</v>
-      </c>
-      <c r="B730">
-        <v>27</v>
-      </c>
-      <c r="C730">
-        <v>0</v>
-      </c>
-      <c r="D730">
-        <v>0</v>
-      </c>
-      <c r="E730">
-        <v>0</v>
-      </c>
-      <c r="F730">
-        <v>0</v>
-      </c>
-      <c r="G730" s="4" t="b">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J730" s="5">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
